--- a/Systems_C_CPP_Linux_Nov17_Group3_Sprint2/sprint2/RTM/RTM_Group_3.xlsx
+++ b/Systems_C_CPP_Linux_Nov17_Group3_Sprint2/sprint2/RTM/RTM_Group_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lravalip\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FF8042-11DB-4952-B18C-503DC42F9558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F84785-82B9-46B4-807B-DB91A667D6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4210" yWindow="1090" windowWidth="12620" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="group3" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Names</t>
   </si>
@@ -99,28 +99,64 @@
     <t>[BRS]/03/07/06</t>
   </si>
   <si>
-    <t>book_ticket(),view_bookings(), cancel_ticket()</t>
-  </si>
-  <si>
     <t>[BRS]02/08</t>
   </si>
   <si>
-    <t>user_login() &amp; user_register(), edit_ticket()</t>
-  </si>
-  <si>
-    <t>add_bus(), view_bus_details()</t>
-  </si>
-  <si>
-    <t>3.2.3, 3.2.5</t>
-  </si>
-  <si>
-    <t>3.1.2.1,3.1.2.2., 3.3.3</t>
-  </si>
-  <si>
-    <t>3.3.1, 3.3.2,3.3.4</t>
-  </si>
-  <si>
-    <t>edit_bus(), delete_bus(),view_booking_menus()</t>
+    <t>LOGIN_001</t>
+  </si>
+  <si>
+    <t>LOGIN_002,  LOGIN_002, TICKET_01, TICKET_02</t>
+  </si>
+  <si>
+    <t>3.2.8, 3.2.9</t>
+  </si>
+  <si>
+    <t>3.1.2, 3.2.3, 3.2.4</t>
+  </si>
+  <si>
+    <t>3.3.1, 3.3.2, 3.3.3</t>
+  </si>
+  <si>
+    <t>edit_bus(), delete_bus()</t>
+  </si>
+  <si>
+    <t>add_bus(), view_bus()</t>
+  </si>
+  <si>
+    <t>book_ticket(), cancel_ticket()</t>
+  </si>
+  <si>
+    <t>user_login() &amp; user_register(),edit_ticket()</t>
+  </si>
+  <si>
+    <t>TICKET_03, TICKET_04, TICKET_05, TICKET_06.</t>
+  </si>
+  <si>
+    <t>BUS_03, BUS_04, BUS_05, BUS_06.</t>
+  </si>
+  <si>
+    <t>LOGIN_002,  LOGIN_002.</t>
+  </si>
+  <si>
+    <t>BUS_07 , BUS_08, BUS_01,  BUS_02</t>
+  </si>
+  <si>
+    <t>ADMIN_01</t>
+  </si>
+  <si>
+    <t>ADMIN_03</t>
+  </si>
+  <si>
+    <t>ADMIN_01,ADMIN_02</t>
+  </si>
+  <si>
+    <t>ADMIN_04</t>
+  </si>
+  <si>
+    <t>USER_01, USER_02</t>
+  </si>
+  <si>
+    <t>USER_03,  USER_04</t>
   </si>
 </sst>
 </file>
@@ -491,7 +527,7 @@
   <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -499,8 +535,8 @@
     <col min="1" max="1" width="12.1796875" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" customWidth="1"/>
     <col min="3" max="3" width="20.6328125" customWidth="1"/>
-    <col min="4" max="4" width="53" customWidth="1"/>
-    <col min="5" max="5" width="101.453125" customWidth="1"/>
+    <col min="4" max="4" width="38.90625" customWidth="1"/>
+    <col min="5" max="5" width="50.54296875" customWidth="1"/>
     <col min="6" max="6" width="81.453125" customWidth="1"/>
     <col min="7" max="26" width="8.7265625" customWidth="1"/>
   </cols>
@@ -538,8 +574,12 @@
       <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
@@ -554,8 +594,12 @@
       <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
@@ -568,10 +612,14 @@
         <v>14</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
@@ -581,29 +629,37 @@
         <v>17</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -613,13 +669,17 @@
         <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="11"/>
